--- a/data/trans_orig/P25D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DFE57E7-78FE-4418-B1CD-D5293F0B9BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F06DFD5F-4AF2-499A-BCDB-EEA89C64525B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{199E5ED1-6849-41A7-9EC3-F7453FACA23B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA6A0F92-ECC0-428B-ABC7-C2AE6D976787}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="196">
   <si>
     <t>Población según la forma de consumir tabaco no tradicional (electrónico) en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -74,565 +74,553 @@
     <t>2,12%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>1,16%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>No fumo, pero he fumado antes diariamente</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>Fumo diariamente</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>Fumo alguna vez a la semana, pero no diariamente</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>Fumo menos de una vez a la semana</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>No he fumado nunca</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>No fumo, pero he fumado antes diariamente</t>
-  </si>
-  <si>
-    <t>1,13%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>Fumo diariamente</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>Fumo alguna vez a la semana, pero no diariamente</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>Fumo menos de una vez a la semana</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>No he fumado nunca</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>92,66%</t>
   </si>
   <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>94,55%</t>
   </si>
   <si>
     <t>92,13%</t>
   </si>
   <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1047,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11F86A4-66B8-460F-8FFD-425A5A1AE611}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B619F6-5CA3-4DF8-9022-5FC81D69ECEF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1222,13 +1210,13 @@
         <v>6094</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -1237,13 +1225,13 @@
         <v>14147</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -1252,19 +1240,19 @@
         <v>20241</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -1273,13 +1261,13 @@
         <v>2887</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1288,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -1303,19 +1291,19 @@
         <v>2887</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
@@ -1324,13 +1312,13 @@
         <v>4017</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1339,13 +1327,13 @@
         <v>751</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -1354,19 +1342,19 @@
         <v>4768</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -1375,13 +1363,13 @@
         <v>5295</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1390,13 +1378,13 @@
         <v>980</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -1405,19 +1393,19 @@
         <v>6275</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7">
         <v>664</v>
@@ -1426,13 +1414,13 @@
         <v>511832</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H9" s="7">
         <v>1388</v>
@@ -1441,13 +1429,13 @@
         <v>802300</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M9" s="7">
         <v>2052</v>
@@ -1456,13 +1444,13 @@
         <v>1314131</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1477,13 +1465,13 @@
         <v>541634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7">
         <v>1424</v>
@@ -1492,13 +1480,13 @@
         <v>833882</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>2115</v>
@@ -1507,18 +1495,18 @@
         <v>1375515</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1530,13 +1518,13 @@
         <v>84447</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>133</v>
@@ -1545,13 +1533,13 @@
         <v>87329</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>210</v>
@@ -1560,10 +1548,10 @@
         <v>171776</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>77</v>
@@ -1623,7 +1611,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
         <v>18</v>
@@ -1647,10 +1635,10 @@
         <v>18506</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>90</v>
@@ -1662,19 +1650,19 @@
         <v>43063</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>23</v>
@@ -1698,13 +1686,13 @@
         <v>23510</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -1716,16 +1704,16 @@
         <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7">
         <v>10</v>
@@ -1734,13 +1722,13 @@
         <v>70879</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>11</v>
@@ -1749,13 +1737,13 @@
         <v>8780</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>21</v>
@@ -1764,19 +1752,19 @@
         <v>79659</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="7">
         <v>1826</v>
@@ -1785,13 +1773,13 @@
         <v>1908636</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>2697</v>
@@ -1800,28 +1788,28 @@
         <v>2079094</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>4523</v>
       </c>
       <c r="N16" s="7">
-        <v>3987729</v>
+        <v>3987730</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1836,13 +1824,13 @@
         <v>2154270</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>2915</v>
@@ -1851,33 +1839,33 @@
         <v>2245135</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>4900</v>
       </c>
       <c r="N17" s="7">
-        <v>4399404</v>
+        <v>4399405</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1877,13 @@
         <v>18083</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -1904,13 +1892,13 @@
         <v>22613</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -1919,13 +1907,13 @@
         <v>40696</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,7 +1928,7 @@
         <v>11580</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>124</v>
@@ -1955,13 +1943,13 @@
         <v>3397</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -1970,19 +1958,19 @@
         <v>14978</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7">
         <v>9</v>
@@ -1991,13 +1979,13 @@
         <v>11937</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -2006,13 +1994,13 @@
         <v>8216</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -2021,19 +2009,19 @@
         <v>20153</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="7">
         <v>2</v>
@@ -2042,13 +2030,13 @@
         <v>3202</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2057,13 +2045,13 @@
         <v>1999</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -2072,19 +2060,19 @@
         <v>5201</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -2093,13 +2081,13 @@
         <v>2732</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2108,13 +2096,13 @@
         <v>6856</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -2123,19 +2111,19 @@
         <v>9589</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="7">
         <v>634</v>
@@ -2144,13 +2132,13 @@
         <v>623399</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H23" s="7">
         <v>944</v>
@@ -2159,13 +2147,13 @@
         <v>670100</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M23" s="7">
         <v>1578</v>
@@ -2174,13 +2162,13 @@
         <v>1293500</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2183,13 @@
         <v>670934</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24" s="7">
         <v>1003</v>
@@ -2210,13 +2198,13 @@
         <v>713182</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M24" s="7">
         <v>1682</v>
@@ -2225,13 +2213,13 @@
         <v>1384117</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,13 +2236,13 @@
         <v>114039</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>189</v>
@@ -2263,13 +2251,13 @@
         <v>125646</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>295</v>
@@ -2278,13 +2266,13 @@
         <v>239685</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,13 +2287,13 @@
         <v>52578</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>52</v>
@@ -2314,13 +2302,13 @@
         <v>45461</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="M26" s="7">
         <v>103</v>
@@ -2329,19 +2317,19 @@
         <v>98039</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>79</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="7">
         <v>30</v>
@@ -2350,13 +2338,13 @@
         <v>39382</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="H27" s="7">
         <v>31</v>
@@ -2365,13 +2353,13 @@
         <v>26722</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="M27" s="7">
         <v>61</v>
@@ -2380,19 +2368,19 @@
         <v>66103</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="7">
         <v>29</v>
@@ -2401,13 +2389,13 @@
         <v>38066</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -2416,13 +2404,13 @@
         <v>26260</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M28" s="7">
         <v>53</v>
@@ -2431,19 +2419,19 @@
         <v>64326</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7">
         <v>15</v>
@@ -2452,13 +2440,13 @@
         <v>78906</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -2467,13 +2455,13 @@
         <v>16617</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>32</v>
@@ -2482,19 +2470,19 @@
         <v>95523</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="7">
         <v>3124</v>
@@ -2503,43 +2491,43 @@
         <v>3043866</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H30" s="7">
         <v>5029</v>
       </c>
       <c r="I30" s="7">
-        <v>3551495</v>
+        <v>3551494</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>8153</v>
       </c>
       <c r="N30" s="7">
-        <v>6595360</v>
+        <v>6595359</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,48 +2542,48 @@
         <v>3366837</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H31" s="7">
         <v>5342</v>
       </c>
       <c r="I31" s="7">
-        <v>3792200</v>
+        <v>3792199</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M31" s="7">
         <v>8697</v>
       </c>
       <c r="N31" s="7">
-        <v>7159037</v>
+        <v>7159036</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P25D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F06DFD5F-4AF2-499A-BCDB-EEA89C64525B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE494D1E-8A14-49C3-BB7E-2473EE395509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA6A0F92-ECC0-428B-ABC7-C2AE6D976787}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5220B868-6D48-4E75-865F-D12498B9BA3E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1035,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B619F6-5CA3-4DF8-9022-5FC81D69ECEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5E9603-386C-4060-B148-6C654EDBCE9B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P25D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE494D1E-8A14-49C3-BB7E-2473EE395509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4642B637-2592-47AC-AD3B-98BE39409D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5220B868-6D48-4E75-865F-D12498B9BA3E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DEBE24B0-9393-403C-9597-C457A64BA5E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="200">
   <si>
     <t>Población según la forma de consumir tabaco no tradicional (electrónico) en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -74,553 +74,565 @@
     <t>2,12%</t>
   </si>
   <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>No fumo, pero he fumado antes diariamente</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>Fumo diariamente</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>Fumo alguna vez a la semana, pero no diariamente</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>Fumo menos de una vez a la semana</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>No he fumado nunca</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>No fumo, pero he fumado antes diariamente</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>Fumo diariamente</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>Fumo alguna vez a la semana, pero no diariamente</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>Fumo menos de una vez a la semana</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>No he fumado nunca</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>1,35%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>0,79%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,52%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
   </si>
   <si>
     <t>93,65%</t>
   </si>
   <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>92,13%</t>
   </si>
   <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1035,7 +1047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5E9603-386C-4060-B148-6C654EDBCE9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E75FBC-08BA-4C23-AF80-87F5E57637F0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1210,13 +1222,13 @@
         <v>6094</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -1225,13 +1237,13 @@
         <v>14147</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -1240,19 +1252,19 @@
         <v>20241</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -1261,13 +1273,13 @@
         <v>2887</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1276,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -1291,19 +1303,19 @@
         <v>2887</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
@@ -1312,13 +1324,13 @@
         <v>4017</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1327,13 +1339,13 @@
         <v>751</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -1342,19 +1354,19 @@
         <v>4768</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -1363,13 +1375,13 @@
         <v>5295</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1378,13 +1390,13 @@
         <v>980</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -1393,19 +1405,19 @@
         <v>6275</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7">
         <v>664</v>
@@ -1414,13 +1426,13 @@
         <v>511832</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H9" s="7">
         <v>1388</v>
@@ -1429,13 +1441,13 @@
         <v>802300</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M9" s="7">
         <v>2052</v>
@@ -1444,13 +1456,13 @@
         <v>1314131</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1465,13 +1477,13 @@
         <v>541634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H10" s="7">
         <v>1424</v>
@@ -1480,13 +1492,13 @@
         <v>833882</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M10" s="7">
         <v>2115</v>
@@ -1495,18 +1507,18 @@
         <v>1375515</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1518,13 +1530,13 @@
         <v>84447</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>133</v>
@@ -1533,13 +1545,13 @@
         <v>87329</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>210</v>
@@ -1548,10 +1560,10 @@
         <v>171776</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>77</v>
@@ -1611,7 +1623,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
         <v>18</v>
@@ -1635,10 +1647,10 @@
         <v>18506</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>90</v>
@@ -1650,19 +1662,19 @@
         <v>43063</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>23</v>
@@ -1686,13 +1698,13 @@
         <v>23510</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -1704,16 +1716,16 @@
         <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="7">
         <v>10</v>
@@ -1722,13 +1734,13 @@
         <v>70879</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>11</v>
@@ -1737,13 +1749,13 @@
         <v>8780</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>21</v>
@@ -1752,19 +1764,19 @@
         <v>79659</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="7">
         <v>1826</v>
@@ -1773,13 +1785,13 @@
         <v>1908636</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>2697</v>
@@ -1788,28 +1800,28 @@
         <v>2079094</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>4523</v>
       </c>
       <c r="N16" s="7">
-        <v>3987730</v>
+        <v>3987729</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,13 +1836,13 @@
         <v>2154270</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>2915</v>
@@ -1839,33 +1851,33 @@
         <v>2245135</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>4900</v>
       </c>
       <c r="N17" s="7">
-        <v>4399405</v>
+        <v>4399404</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -1877,13 +1889,13 @@
         <v>18083</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -1892,13 +1904,13 @@
         <v>22613</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -1907,13 +1919,13 @@
         <v>40696</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,7 +1940,7 @@
         <v>11580</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>124</v>
@@ -1943,13 +1955,13 @@
         <v>3397</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -1958,19 +1970,19 @@
         <v>14978</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7">
         <v>9</v>
@@ -1979,13 +1991,13 @@
         <v>11937</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -1994,13 +2006,13 @@
         <v>8216</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -2009,19 +2021,19 @@
         <v>20153</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7">
         <v>2</v>
@@ -2030,13 +2042,13 @@
         <v>3202</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2045,13 +2057,13 @@
         <v>1999</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -2060,19 +2072,19 @@
         <v>5201</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -2081,13 +2093,13 @@
         <v>2732</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2096,13 +2108,13 @@
         <v>6856</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -2111,19 +2123,19 @@
         <v>9589</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7">
         <v>634</v>
@@ -2132,13 +2144,13 @@
         <v>623399</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>944</v>
@@ -2147,13 +2159,13 @@
         <v>670100</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>1578</v>
@@ -2162,13 +2174,13 @@
         <v>1293500</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2195,13 @@
         <v>670934</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H24" s="7">
         <v>1003</v>
@@ -2198,13 +2210,13 @@
         <v>713182</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M24" s="7">
         <v>1682</v>
@@ -2213,13 +2225,13 @@
         <v>1384117</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,13 +2248,13 @@
         <v>114039</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>189</v>
@@ -2251,13 +2263,13 @@
         <v>125646</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>295</v>
@@ -2266,13 +2278,13 @@
         <v>239685</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2299,13 @@
         <v>52578</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>52</v>
@@ -2302,13 +2314,13 @@
         <v>45461</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>103</v>
@@ -2317,19 +2329,19 @@
         <v>98039</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>79</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="7">
         <v>30</v>
@@ -2338,13 +2350,13 @@
         <v>39382</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="H27" s="7">
         <v>31</v>
@@ -2353,13 +2365,13 @@
         <v>26722</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="M27" s="7">
         <v>61</v>
@@ -2368,19 +2380,19 @@
         <v>66103</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7">
         <v>29</v>
@@ -2389,13 +2401,13 @@
         <v>38066</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -2404,13 +2416,13 @@
         <v>26260</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>53</v>
@@ -2419,19 +2431,19 @@
         <v>64326</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7">
         <v>15</v>
@@ -2440,13 +2452,13 @@
         <v>78906</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -2455,13 +2467,13 @@
         <v>16617</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M29" s="7">
         <v>32</v>
@@ -2470,19 +2482,19 @@
         <v>95523</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="7">
         <v>3124</v>
@@ -2491,43 +2503,43 @@
         <v>3043866</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H30" s="7">
         <v>5029</v>
       </c>
       <c r="I30" s="7">
-        <v>3551494</v>
+        <v>3551495</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M30" s="7">
         <v>8153</v>
       </c>
       <c r="N30" s="7">
-        <v>6595359</v>
+        <v>6595360</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,48 +2554,48 @@
         <v>3366837</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H31" s="7">
         <v>5342</v>
       </c>
       <c r="I31" s="7">
-        <v>3792199</v>
+        <v>3792200</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M31" s="7">
         <v>8697</v>
       </c>
       <c r="N31" s="7">
-        <v>7159036</v>
+        <v>7159037</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P25D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4642B637-2592-47AC-AD3B-98BE39409D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E488A3E-94E7-4EFA-8638-7F78E5253EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DEBE24B0-9393-403C-9597-C457A64BA5E3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{19873BA5-5B8F-4D5A-BB7A-75C7CCCA2CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="201">
   <si>
     <t>Población según la forma de consumir tabaco no tradicional (electrónico) en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -71,568 +71,571 @@
     <t>No fumo, aunque he fumado antes pero no diariamente</t>
   </si>
   <si>
-    <t>2,12%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>No fumo, pero he fumado antes diariamente</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>Fumo diariamente</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>Fumo alguna vez a la semana, pero no diariamente</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>Fumo menos de una vez a la semana</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>No he fumado nunca</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>No fumo, pero he fumado antes diariamente</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>Fumo diariamente</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>Fumo alguna vez a la semana, pero no diariamente</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>Fumo menos de una vez a la semana</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>No he fumado nunca</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>18,49%</t>
   </si>
   <si>
     <t>85,02%</t>
   </si>
   <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1047,7 +1050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E75FBC-08BA-4C23-AF80-87F5E57637F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255C57D7-44F6-433E-AD02-0D92D59808FF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1168,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>11509</v>
+        <v>10815</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1183,7 +1186,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>15704</v>
+        <v>14164</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1198,88 +1201,88 @@
         <v>30</v>
       </c>
       <c r="N4" s="7">
-        <v>27212</v>
+        <v>24979</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>6094</v>
+        <v>5704</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>14147</v>
+        <v>11781</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
       </c>
       <c r="N5" s="7">
-        <v>20241</v>
+        <v>17486</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>2887</v>
+        <v>2650</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1288,181 +1291,181 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>2887</v>
+        <v>2650</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>4017</v>
+        <v>3781</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>751</v>
+        <v>636</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>4768</v>
+        <v>4417</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>5295</v>
+        <v>5400</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>980</v>
+        <v>859</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>6275</v>
+        <v>6260</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7">
         <v>664</v>
       </c>
       <c r="D9" s="7">
-        <v>511832</v>
+        <v>486587</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H9" s="7">
         <v>1388</v>
       </c>
       <c r="I9" s="7">
-        <v>802300</v>
+        <v>726160</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M9" s="7">
         <v>2052</v>
       </c>
       <c r="N9" s="7">
-        <v>1314131</v>
+        <v>1212747</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1474,51 +1477,51 @@
         <v>691</v>
       </c>
       <c r="D10" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7">
         <v>1424</v>
       </c>
       <c r="I10" s="7">
-        <v>833882</v>
+        <v>753600</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>2115</v>
       </c>
       <c r="N10" s="7">
-        <v>1375515</v>
+        <v>1268538</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1527,43 +1530,43 @@
         <v>77</v>
       </c>
       <c r="D11" s="7">
-        <v>84447</v>
+        <v>83428</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>133</v>
       </c>
       <c r="I11" s="7">
-        <v>87329</v>
+        <v>78343</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>210</v>
       </c>
       <c r="N11" s="7">
-        <v>171776</v>
+        <v>161771</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>77</v>
@@ -1572,256 +1575,256 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7">
         <v>31</v>
       </c>
       <c r="D12" s="7">
-        <v>34904</v>
+        <v>34207</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>35</v>
       </c>
       <c r="I12" s="7">
-        <v>27916</v>
+        <v>25947</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>66</v>
       </c>
       <c r="N12" s="7">
-        <v>62820</v>
+        <v>60153</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
         <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>24557</v>
+        <v>23797</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>18506</v>
+        <v>16446</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>43063</v>
+        <v>40243</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>23</v>
       </c>
       <c r="D14" s="7">
-        <v>30847</v>
+        <v>31106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
       </c>
       <c r="I14" s="7">
-        <v>23510</v>
+        <v>20405</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
       </c>
       <c r="N14" s="7">
-        <v>54357</v>
+        <v>51511</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7">
         <v>10</v>
       </c>
       <c r="D15" s="7">
-        <v>70879</v>
+        <v>269721</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H15" s="7">
         <v>11</v>
       </c>
       <c r="I15" s="7">
-        <v>8780</v>
+        <v>8283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M15" s="7">
         <v>21</v>
       </c>
       <c r="N15" s="7">
-        <v>79659</v>
+        <v>278005</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="7">
         <v>1826</v>
       </c>
       <c r="D16" s="7">
-        <v>1908636</v>
+        <v>1840728</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>2697</v>
       </c>
       <c r="I16" s="7">
-        <v>2079094</v>
+        <v>2084311</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>4523</v>
       </c>
       <c r="N16" s="7">
-        <v>3987729</v>
+        <v>3925039</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,51 +1836,51 @@
         <v>1985</v>
       </c>
       <c r="D17" s="7">
-        <v>2154270</v>
+        <v>2282987</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>2915</v>
       </c>
       <c r="I17" s="7">
-        <v>2245135</v>
+        <v>2233735</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>4900</v>
       </c>
       <c r="N17" s="7">
-        <v>4399404</v>
+        <v>4516722</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -1886,142 +1889,142 @@
         <v>21</v>
       </c>
       <c r="D18" s="7">
-        <v>18083</v>
+        <v>16931</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>22613</v>
+        <v>20571</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
       </c>
       <c r="N18" s="7">
-        <v>40696</v>
+        <v>37502</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7">
         <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>11580</v>
+        <v>10893</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>3397</v>
+        <v>3032</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
       </c>
       <c r="N19" s="7">
-        <v>14978</v>
+        <v>13926</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7">
         <v>9</v>
       </c>
       <c r="D20" s="7">
-        <v>11937</v>
+        <v>10964</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
       </c>
       <c r="I20" s="7">
-        <v>8216</v>
+        <v>7294</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
       </c>
       <c r="N20" s="7">
-        <v>20153</v>
+        <v>18259</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>135</v>
@@ -2033,70 +2036,70 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="7">
         <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>3202</v>
+        <v>3221</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
       </c>
       <c r="I21" s="7">
-        <v>1999</v>
+        <v>1804</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
       </c>
       <c r="N21" s="7">
-        <v>5201</v>
+        <v>5026</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>2732</v>
+        <v>3110</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>144</v>
@@ -2105,7 +2108,7 @@
         <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>6856</v>
+        <v>6049</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>145</v>
@@ -2114,73 +2117,73 @@
         <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>9589</v>
+        <v>9160</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="7">
         <v>634</v>
       </c>
       <c r="D23" s="7">
-        <v>623399</v>
+        <v>599490</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>944</v>
       </c>
       <c r="I23" s="7">
-        <v>670100</v>
+        <v>621060</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>1578</v>
       </c>
       <c r="N23" s="7">
-        <v>1293500</v>
+        <v>1220549</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,46 +2195,46 @@
         <v>679</v>
       </c>
       <c r="D24" s="7">
-        <v>670934</v>
+        <v>644610</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24" s="7">
         <v>1003</v>
       </c>
       <c r="I24" s="7">
-        <v>713182</v>
+        <v>659812</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M24" s="7">
         <v>1682</v>
       </c>
       <c r="N24" s="7">
-        <v>1384117</v>
+        <v>1304421</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,190 +2248,190 @@
         <v>106</v>
       </c>
       <c r="D25" s="7">
-        <v>114039</v>
+        <v>111174</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>189</v>
       </c>
       <c r="I25" s="7">
-        <v>125646</v>
+        <v>113078</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M25" s="7">
         <v>295</v>
       </c>
       <c r="N25" s="7">
-        <v>239685</v>
+        <v>224253</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>51</v>
       </c>
       <c r="D26" s="7">
-        <v>52578</v>
+        <v>50804</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>52</v>
       </c>
       <c r="I26" s="7">
-        <v>45461</v>
+        <v>40760</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>103</v>
       </c>
       <c r="N26" s="7">
-        <v>98039</v>
+        <v>91565</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="7">
         <v>30</v>
       </c>
       <c r="D27" s="7">
-        <v>39382</v>
+        <v>37411</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H27" s="7">
         <v>31</v>
       </c>
       <c r="I27" s="7">
-        <v>26722</v>
+        <v>23740</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M27" s="7">
         <v>61</v>
       </c>
       <c r="N27" s="7">
-        <v>66103</v>
+        <v>61151</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="7">
         <v>29</v>
       </c>
       <c r="D28" s="7">
-        <v>38066</v>
+        <v>38109</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
       </c>
       <c r="I28" s="7">
-        <v>26260</v>
+        <v>22845</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>53</v>
       </c>
       <c r="N28" s="7">
-        <v>64326</v>
+        <v>60953</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>135</v>
@@ -2437,109 +2440,109 @@
         <v>179</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7">
         <v>15</v>
       </c>
       <c r="D29" s="7">
-        <v>78906</v>
+        <v>278232</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
       </c>
       <c r="I29" s="7">
-        <v>16617</v>
+        <v>15192</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M29" s="7">
         <v>32</v>
       </c>
       <c r="N29" s="7">
-        <v>95523</v>
+        <v>293424</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="7">
         <v>3124</v>
       </c>
       <c r="D30" s="7">
-        <v>3043866</v>
+        <v>2926805</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H30" s="7">
         <v>5029</v>
       </c>
       <c r="I30" s="7">
-        <v>3551495</v>
+        <v>3431531</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M30" s="7">
         <v>8153</v>
       </c>
       <c r="N30" s="7">
-        <v>6595360</v>
+        <v>6358336</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,51 +2554,51 @@
         <v>3355</v>
       </c>
       <c r="D31" s="7">
-        <v>3366837</v>
+        <v>3442535</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H31" s="7">
         <v>5342</v>
       </c>
       <c r="I31" s="7">
-        <v>3792200</v>
+        <v>3647147</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M31" s="7">
         <v>8697</v>
       </c>
       <c r="N31" s="7">
-        <v>7159037</v>
+        <v>7089682</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
